--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\Escalation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33102AB1-071F-447D-B050-B6F618EE80B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C8C6DC-84A6-41A8-A953-D5F64CEA88E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="3570" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
